--- a/data_descriptives_diff.xlsx
+++ b/data_descriptives_diff.xlsx
@@ -1408,11 +1408,7 @@
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
+      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr">
         <is>
           <t>-inf</t>
@@ -1429,11 +1425,7 @@
       <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
+      <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr">
         <is>
           <t>-inf</t>
@@ -1452,11 +1444,7 @@
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
+      <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="inlineStr">
         <is>
           <t>-inf</t>
@@ -1476,7 +1464,11 @@
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="inlineStr"/>
-      <c r="CB3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
       <c r="CC3" t="n">
         <v>-0</v>
       </c>
@@ -1510,11 +1502,7 @@
           <t>-inf</t>
         </is>
       </c>
-      <c r="CZ3" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
+      <c r="CZ3" t="inlineStr"/>
       <c r="DA3" t="inlineStr"/>
       <c r="DB3" t="inlineStr"/>
       <c r="DC3" t="inlineStr"/>
@@ -1861,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002447214308634045</v>
+        <v>0.0002499296011591896</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1949,94 +1937,94 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0.482776670262635</v>
+        <v>-0.4289874419420469</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.002560666954499925</v>
+        <v>-0.002515802716733498</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.1721956902144923</v>
+        <v>-0.1992363246562166</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.3787799876745277</v>
+        <v>-0.3882963372003823</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0.4863758382610169</v>
+        <v>-0.468523624718505</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0.4306102464295047</v>
+        <v>-0.4533567389337844</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.4286834995481163</v>
+        <v>-0.4213262799231051</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0.4488248172095662</v>
+        <v>-0.4677501893286136</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.4228808710967051</v>
+        <v>-0.392145303242806</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0.5053931935032748</v>
+        <v>-0.5043743037254131</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0.4012227464017065</v>
+        <v>-0.4023202441444778</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.4737338358994316</v>
+        <v>-0.4540274990402154</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0.3788627044013065</v>
+        <v>-0.4087074000922734</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0.466769167914267</v>
+        <v>-0.4763942240812771</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0.3909094417665802</v>
+        <v>-0.4272851641602656</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.4346386943709512</v>
+        <v>-0.4313220124072843</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.4444382304630196</v>
+        <v>-0.458103386079036</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.4255075718996443</v>
+        <v>-0.4150513950716801</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0.5076069175416922</v>
+        <v>-0.5058346683304387</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.3912963592421259</v>
+        <v>-0.4085989974825165</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.4658702910950692</v>
+        <v>-0.4584826887915781</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.3782333642075318</v>
+        <v>-0.4034574354015902</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.4847175527602899</v>
+        <v>-0.4811782871077419</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0.4284622988407471</v>
+        <v>-0.4330943822783881</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0.4300951690131031</v>
+        <v>-0.4238386894340955</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0.4521706237154018</v>
+        <v>-0.4672460622804273</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.4244928265431783</v>
+        <v>-0.3979751603767134</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0.5053866520682427</v>
+        <v>-0.505228716615331</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0.4032797217030816</v>
+        <v>-0.4109879125565294</v>
       </c>
       <c r="BS5" t="n">
-        <v>-0.4742586038691773</v>
+        <v>-0.4548635967006624</v>
       </c>
       <c r="BT5" t="n">
         <v>0</v>
@@ -2045,25 +2033,25 @@
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>-0.4010437886859445</v>
+        <v>-0.3976285032279087</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>-0.4261965416588361</v>
+        <v>-0.4034585177949079</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.0021955779113472</v>
+        <v>-0.002163661202950253</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0.003729557758395616</v>
+        <v>-0.003687601923746804</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0.002201838573045288</v>
+        <v>-0.002175536777061334</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.003845003164241613</v>
+        <v>-0.003801839157656842</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
@@ -2111,22 +2099,22 @@
       <c r="CV5" t="inlineStr"/>
       <c r="CW5" t="inlineStr"/>
       <c r="CX5" t="n">
-        <v>-0.1055425009263813</v>
+        <v>-0.1099631785882957</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.09591001211687644</v>
+        <v>-0.1179916993691728</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.1262218233489344</v>
+        <v>-0.1284488991882546</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0.1235112137598</v>
+        <v>-0.1198677298574224</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0.1437182170211469</v>
+        <v>-0.1390576034388533</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0.1310252893691723</v>
+        <v>-0.1310882107956524</v>
       </c>
     </row>
     <row r="6">
@@ -2166,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0007943724121824579</v>
+        <v>-0.0007976935587679249</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -2256,94 +2244,94 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0.00679676546824277</v>
+        <v>-0.006735350774594183</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0.0001156147073212315</v>
+        <v>-0.0001273410084810027</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0.0003164647625357749</v>
+        <v>-0.0004235379357077261</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.1370004372918</v>
+        <v>-0.1226600649984384</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0.0671592884718762</v>
+        <v>-0.09776873637607378</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.0001845231477598337</v>
+        <v>0.0003818244244859251</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.2786160330645139</v>
+        <v>-0.3138266119853111</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0.03253423386909895</v>
+        <v>-0.01580312239465077</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.05486516945217813</v>
+        <v>-0.1064646296983257</v>
       </c>
       <c r="AY6" t="n">
-        <v>-0.09976670179998878</v>
+        <v>-0.1056516540922313</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0.1524010888922257</v>
+        <v>-0.1534318906195552</v>
       </c>
       <c r="BA6" t="n">
-        <v>-0.1713078671609352</v>
+        <v>-0.3048655654032916</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.1379407266979067</v>
+        <v>-0.09409491640815729</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0.100016650330303</v>
+        <v>-0.0905350884807213</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.0003271910070315625</v>
+        <v>0.001496611916891348</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.2800639043522389</v>
+        <v>-0.3024532882813517</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.02222496455524013</v>
+        <v>-0.01941555703679932</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.05564117162047238</v>
+        <v>-0.07324860731844889</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0.09706315137030938</v>
+        <v>-0.1026070102020353</v>
       </c>
       <c r="BI6" t="n">
-        <v>-0.1764980701629121</v>
+        <v>-0.1524247129058478</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-0.2211761796476578</v>
+        <v>-0.3135947887161432</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0.1376738817121417</v>
+        <v>-0.1053970773515126</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.06744193845566554</v>
+        <v>-0.08102454940681041</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.000438933830648991</v>
+        <v>0.0002178050055453847</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0.276564341990527</v>
+        <v>-0.2980252365156191</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0.02827295667751781</v>
+        <v>-0.01506823089642617</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.05429485220724217</v>
+        <v>-0.1001911019084227</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0.09828230268439614</v>
+        <v>-0.1027235533736502</v>
       </c>
       <c r="BR6" t="n">
-        <v>-0.1499427910859183</v>
+        <v>-0.140680404465216</v>
       </c>
       <c r="BS6" t="n">
-        <v>-0.1730358439666209</v>
+        <v>-0.3090546966650163</v>
       </c>
       <c r="BT6" t="n">
         <v>0</v>
@@ -2352,25 +2340,25 @@
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.138087096063506</v>
+        <v>-0.1448653693260238</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.05986970686921642</v>
+        <v>0.03392884867741811</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.003851303782548682</v>
+        <v>-0.003919275009171727</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0.002286803717972117</v>
+        <v>-0.002636397710239916</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0.003867565358713765</v>
+        <v>-0.00392401074007146</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0.00193038415723429</v>
+        <v>-0.002454426134611529</v>
       </c>
       <c r="CC6" t="n">
         <v>-0</v>
@@ -2418,22 +2406,22 @@
       <c r="CV6" t="inlineStr"/>
       <c r="CW6" t="inlineStr"/>
       <c r="CX6" t="n">
-        <v>-0.0332925293771313</v>
+        <v>-0.03257885628080859</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.002171574359373135</v>
+        <v>-0.005843192745412799</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.01039208696009538</v>
+        <v>-0.004003829119099353</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0.009375546723195721</v>
+        <v>-0.001320786793736566</v>
       </c>
       <c r="DB6" t="n">
-        <v>-9.442644639459351e-05</v>
+        <v>0.00101197522859596</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.001484065042286413</v>
+        <v>0.001512186210608543</v>
       </c>
     </row>
     <row r="7">
@@ -2539,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0.02822360779787039</v>
+        <v>-0.02427073914997907</v>
       </c>
       <c r="AQ7" t="n">
         <v>-0.0001734387577889018</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0.01962295493628974</v>
+        <v>-0.03993965114976979</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.02362087340136518</v>
+        <v>0.004288958099441264</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.02013805187768717</v>
+        <v>-0.04855721954005209</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0.0009802325725032416</v>
+        <v>-0.0007758462001577733</v>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
@@ -2562,28 +2550,28 @@
         </is>
       </c>
       <c r="AW7" t="n">
-        <v>-0.03858141998197369</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1880634865000977</v>
+        <v>0.04361624429993665</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.1551189486211326</v>
+        <v>0.1378849372678146</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.03493716492517421</v>
+        <v>0.02835378085776679</v>
       </c>
       <c r="BA7" t="n">
-        <v>3.153974775906743</v>
+        <v>1.513490551321156</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0.0675886201458831</v>
+        <v>0.04074243736388703</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0.02954661203222441</v>
+        <v>-0.01122996754147931</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0.002289984277388081</v>
+        <v>-0.0008799200848481125</v>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
@@ -2591,28 +2579,28 @@
         </is>
       </c>
       <c r="BF7" t="n">
-        <v>-0.04584535423769083</v>
+        <v>-0.03736427528291004</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.1649451140234717</v>
+        <v>0.1089242135336597</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.2243873468644819</v>
+        <v>0.2052041887598985</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0.02920753206298161</v>
+        <v>0.03675936343979807</v>
       </c>
       <c r="BJ7" t="n">
-        <v>13.33728455696274</v>
+        <v>8.954698462895109</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.01615833835944265</v>
+        <v>0.05995903871408178</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.01248534112163264</v>
+        <v>-0.01551853080425364</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>-0.0004869054805961527</v>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
@@ -2620,19 +2608,19 @@
         </is>
       </c>
       <c r="BO7" t="n">
-        <v>-0.02795411219671402</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1865529069316157</v>
+        <v>0.05843233003931114</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.1702515247120946</v>
+        <v>0.1582300068652973</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.04116002280963676</v>
+        <v>0.05942655830956672</v>
       </c>
       <c r="BS7" t="n">
-        <v>3.832603565293281</v>
+        <v>1.883871438809595</v>
       </c>
       <c r="BT7" t="n">
         <v>0</v>
@@ -2641,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.09471495335506462</v>
+        <v>0.06884279354814198</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
@@ -2682,7 +2670,7 @@
       <c r="DA7" t="inlineStr"/>
       <c r="DB7" t="inlineStr"/>
       <c r="DC7" t="n">
-        <v>0.8002865218826454</v>
+        <v>0.8001109520989129</v>
       </c>
     </row>
     <row r="8">
@@ -2722,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003973858876531116</v>
+        <v>0.0004091116079876026</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -2810,94 +2798,94 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0.557944205284746</v>
+        <v>-0.5332016732343132</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0.002968711714070069</v>
+        <v>-0.002958574285957084</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.2023853037335583</v>
+        <v>-0.2088720741693975</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.4326507727054933</v>
+        <v>-0.439181873533821</v>
       </c>
       <c r="AT8" t="n">
-        <v>-0.5385800180313244</v>
+        <v>-0.5345929437447041</v>
       </c>
       <c r="AU8" t="n">
-        <v>-0.4781395981200969</v>
+        <v>-0.4785844857453802</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.4766076839669293</v>
+        <v>-0.4737453317713382</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0.4817047668193398</v>
+        <v>-0.4859435487232779</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.4647257731562426</v>
+        <v>-0.446780930951804</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0.5721535416863662</v>
+        <v>-0.5703786491769666</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0.4565922597237214</v>
+        <v>-0.4590009444183961</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0.5201405624848406</v>
+        <v>-0.5154139307013563</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.4297824119837464</v>
+        <v>-0.4475283354631436</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0.5341037210413008</v>
+        <v>-0.5392697016609356</v>
       </c>
       <c r="BD8" t="n">
-        <v>-0.4777056078430866</v>
+        <v>-0.4781088587427645</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.4795593370826408</v>
+        <v>-0.4791246759204425</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0.4835112261654895</v>
+        <v>-0.4859428213602781</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.4649686653235021</v>
+        <v>-0.4593684882039413</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0.5719350072466404</v>
+        <v>-0.5703384422200263</v>
       </c>
       <c r="BI8" t="n">
-        <v>-0.4506395685204718</v>
+        <v>-0.4626841542747325</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0.5185510099071468</v>
+        <v>-0.5166560500015543</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.4324419415141738</v>
+        <v>-0.448277049114476</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.5382923212353981</v>
+        <v>-0.5376821941195509</v>
       </c>
       <c r="BM8" t="n">
-        <v>-0.4765691590190269</v>
+        <v>-0.4780984567448335</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0.4774642268698346</v>
+        <v>-0.4741086389774381</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0.4821745996536673</v>
+        <v>-0.4859545940190099</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.4650907665473097</v>
+        <v>-0.4500477555439378</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0.5722889820624277</v>
+        <v>-0.5707262361356821</v>
       </c>
       <c r="BR8" t="n">
-        <v>-0.45752218232548</v>
+        <v>-0.4629867670887998</v>
       </c>
       <c r="BS8" t="n">
-        <v>-0.5202207591693747</v>
+        <v>-0.5153204865687687</v>
       </c>
       <c r="BT8" t="n">
         <v>0</v>
@@ -2906,25 +2894,25 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>-0.4482855273678972</v>
+        <v>-0.4469134273465155</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0.4616595805207467</v>
+        <v>-0.4611992006570705</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.002690849373878459</v>
+        <v>-0.002644185247627125</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0.003864424663432445</v>
+        <v>-0.003813509228644545</v>
       </c>
       <c r="CA8" t="n">
-        <v>-0.002690318922220581</v>
+        <v>-0.002651656495131854</v>
       </c>
       <c r="CB8" t="n">
-        <v>-0.003928753298609643</v>
+        <v>-0.003855303775955623</v>
       </c>
       <c r="CC8" t="n">
         <v>0</v>
@@ -2972,22 +2960,22 @@
       <c r="CV8" t="inlineStr"/>
       <c r="CW8" t="inlineStr"/>
       <c r="CX8" t="n">
-        <v>-0.1425672319015475</v>
+        <v>-0.1428177754500709</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0.1436501548365937</v>
+        <v>-0.1441326273215782</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.1431859589670652</v>
+        <v>-0.1437556542526778</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0.1425182569834311</v>
+        <v>-0.1419865922419628</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0.1442873743086094</v>
+        <v>-0.1441244609606021</v>
       </c>
       <c r="DC8" t="n">
-        <v>-0.1428667626268293</v>
+        <v>-0.1428756793141632</v>
       </c>
     </row>
     <row r="9">
@@ -3027,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001986732083047523</v>
+        <v>0.0002045348867338558</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -3115,94 +3103,94 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0.33512723419044</v>
+        <v>-0.3167735904067475</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0.001485459151480402</v>
+        <v>-0.001480382909758353</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.1069072297535704</v>
+        <v>-0.1105462767346451</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.246774119341013</v>
+        <v>-0.2511220884108152</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0.3207209837123808</v>
+        <v>-0.3177925123136687</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0.2776009400062157</v>
+        <v>-0.2779089293900528</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.2765414206514165</v>
+        <v>-0.2745658760241136</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.2800727584118933</v>
+        <v>-0.2830226982137287</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.2683756244877038</v>
+        <v>-0.2562130217271911</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0.3459002688323179</v>
+        <v>-0.3445449284481557</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0.2628380501706029</v>
+        <v>-0.2644736200641042</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.3072811266356608</v>
+        <v>-0.3038778345012682</v>
       </c>
       <c r="BB9" t="n">
-        <v>-0.2448724690383395</v>
+        <v>-0.2567156233736266</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0.3174340479054795</v>
+        <v>-0.3212288321245043</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0.2773006211730126</v>
+        <v>-0.2775796644215811</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0.2785842648532268</v>
+        <v>-0.2782830720569474</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0.2813284659634065</v>
+        <v>-0.2830221909712115</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.2685416384533581</v>
+        <v>-0.2647235133665304</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0.3457332403725834</v>
+        <v>-0.3445142581413584</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0.2588114737264694</v>
+        <v>-0.2669816880014064</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.3061347464436245</v>
+        <v>-0.3047705774361634</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.2466355075490841</v>
+        <v>-0.2572194463466858</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.3205092504201386</v>
+        <v>-0.3200604395385945</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0.2765147956032736</v>
+        <v>-0.2775724650491466</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0.2771336408919244</v>
+        <v>-0.2748163260093607</v>
       </c>
       <c r="BO9" t="n">
-        <v>-0.2803991381701015</v>
+        <v>-0.2830304009366993</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.2686251074498863</v>
+        <v>-0.2584123487705164</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0.3460038089273208</v>
+        <v>-0.3448101314395056</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0.2634690653648551</v>
+        <v>-0.2671881326621408</v>
       </c>
       <c r="BS9" t="n">
-        <v>-0.3073390145023142</v>
+        <v>-0.3038107201118138</v>
       </c>
       <c r="BT9" t="n">
         <v>0</v>
@@ -3211,25 +3199,25 @@
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0.2572251534737443</v>
+        <v>-0.2563020958389861</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0.266283147611251</v>
+        <v>-0.2659694833708006</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.001346330990507154</v>
+        <v>-0.001322967745641519</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0.0019340826696027</v>
+        <v>-0.001908575945391942</v>
       </c>
       <c r="CA9" t="n">
-        <v>-0.001346065407150311</v>
+        <v>-0.001326708325055777</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.001966309836491453</v>
+        <v>-0.001929513398956261</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
@@ -3277,22 +3265,22 @@
       <c r="CV9" t="inlineStr"/>
       <c r="CW9" t="inlineStr"/>
       <c r="CX9" t="n">
-        <v>-0.07402334365360357</v>
+        <v>-0.07415863964179641</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.07460827474879245</v>
+        <v>-0.07486899701803211</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.07435749825705658</v>
+        <v>-0.07466527907609444</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0.07399689902432353</v>
+        <v>-0.07370986847638444</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.07495263597403269</v>
+        <v>-0.07486458340446293</v>
       </c>
       <c r="DC9" t="n">
-        <v>-0.07418509551143508</v>
+        <v>-0.07418991111252371</v>
       </c>
     </row>
   </sheetData>
